--- a/fw_mock.xlsx
+++ b/fw_mock.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anurad49\workspace\test_fw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anurad49\workspace\test_fw\diggy_stand_local\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>FWNumber</t>
   </si>
@@ -75,20 +75,26 @@
     <t>partner1</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
-    <t>mngo</t>
+    <t>192.168.10.1</t>
+  </si>
+  <si>
+    <t>192.168.10.3</t>
+  </si>
+  <si>
+    <t>192.168.11.1</t>
+  </si>
+  <si>
+    <t>192.168.11.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,7 +162,7 @@
       <sz val="16"/>
       <color rgb="FF242424"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -176,6 +182,19 @@
       <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -357,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -423,9 +442,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -461,8 +477,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -839,7 +861,7 @@
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:F4"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -866,23 +888,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="40" t="s">
+      <c r="C1" s="42"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="40" t="s">
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="42"/>
+      <c r="I1" s="43"/>
       <c r="J1" s="19"/>
       <c r="K1" s="20"/>
       <c r="L1" s="20"/>
@@ -893,20 +915,20 @@
       </c>
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="43"/>
-      <c r="B2" s="25" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="38" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="38" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="21" t="s">
@@ -915,14 +937,14 @@
       <c r="H2" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="38" t="s">
         <v>11</v>
       </c>
       <c r="J2" s="23" t="s">
         <v>12</v>
       </c>
       <c r="K2" s="24" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="L2" s="24" t="s">
         <v>14</v>
@@ -937,54 +959,54 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26" t="s">
+    <row r="3" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="31">
+      <c r="B3" s="39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="40"/>
+      <c r="E3" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="32"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="30">
+        <v>30000</v>
+      </c>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
       <c r="AI3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="31">
-        <v>27017</v>
-      </c>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
       <c r="AG4" s="7"/>
       <c r="AH4" s="7"/>
     </row>

--- a/fw_mock.xlsx
+++ b/fw_mock.xlsx
@@ -1,205 +1,128 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anurad49\workspace\test_fw\diggy_stand_local\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Internal Firewall Request" sheetId="1" r:id="rId1"/>
+    <sheet name="Internal Firewall Request" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
-  <si>
-    <t>FWNumber</t>
-  </si>
-  <si>
-    <t>SOURCE</t>
-  </si>
-  <si>
-    <t>DESTINATION</t>
-  </si>
-  <si>
-    <t>SERVICE</t>
-  </si>
-  <si>
-    <t>Test Result</t>
-  </si>
-  <si>
-    <t>SourceIP Start</t>
-  </si>
-  <si>
-    <t>SourceIP End</t>
-  </si>
-  <si>
-    <t>NAT IP</t>
-  </si>
-  <si>
-    <t>DestinationIP Start</t>
-  </si>
-  <si>
-    <t>DestinationIP End</t>
-  </si>
-  <si>
-    <t>Port TCP</t>
-  </si>
-  <si>
-    <t>Port UDP</t>
-  </si>
-  <si>
-    <t>Result (ไม่ต้องกรอกช่องนี้)</t>
-  </si>
-  <si>
-    <t>Invalid Port</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remark </t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>partner1</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>192.168.10.1</t>
-  </si>
-  <si>
-    <t>192.168.10.3</t>
-  </si>
-  <si>
-    <t>192.168.11.1</t>
-  </si>
-  <si>
-    <t>192.168.11.5</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14" x14ac:knownFonts="1">
-    <font>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="14">
+    <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <color rgb="FF002060"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1" tint="0.3499862666707358"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <charset val="222"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <name val="Tahoma"/>
       <family val="2"/>
+      <color rgb="FF002060"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
       <charset val="222"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="16"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <color rgb="FFC00000"/>
+      <sz val="16"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF002060"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <color rgb="FFC00000"/>
       <sz val="14"/>
-      <color theme="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="18"/>
+    </font>
+    <font>
       <name val="Tahoma"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF002060"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="1" tint="0.34998626667073579"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF002060"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="222"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF242424"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="16"/>
       <color rgb="FFC00000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF002060"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="18"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFC00000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -229,7 +152,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -372,126 +295,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="44">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -503,7 +465,7 @@
       </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <bgColor theme="9" tint="0.7999816888943144"/>
         </patternFill>
       </fill>
       <border>
@@ -547,14 +509,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -854,191 +876,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <tabColor theme="8" tint="0.39997558519241921"/>
+    <tabColor theme="8" tint="0.3999755851924192"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.375" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="38.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.125" customWidth="1"/>
-    <col min="12" max="12" width="16.75" customWidth="1"/>
-    <col min="13" max="13" width="15.125" customWidth="1"/>
-    <col min="14" max="14" width="14.25" bestFit="1" customWidth="1"/>
-    <col min="15" max="25" width="10.375" customWidth="1"/>
-    <col min="26" max="26" width="10.375" hidden="1" customWidth="1"/>
-    <col min="27" max="32" width="13" hidden="1" customWidth="1"/>
-    <col min="33" max="34" width="24.875" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="13" hidden="1" customWidth="1"/>
+    <col width="18.875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="25.75" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="24.25" bestFit="1" customWidth="1" style="1" min="3" max="3"/>
+    <col width="20.25" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="31.375" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="36.75" bestFit="1" customWidth="1" style="1" min="6" max="6"/>
+    <col width="16.25" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="18.25" bestFit="1" customWidth="1" style="15" min="8" max="8"/>
+    <col width="17.625" bestFit="1" customWidth="1" style="6" min="9" max="9"/>
+    <col width="31.75" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="28.125" customWidth="1" min="11" max="11"/>
+    <col width="16.75" customWidth="1" min="12" max="12"/>
+    <col width="15.125" customWidth="1" min="13" max="13"/>
+    <col width="14.25" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="10.375" customWidth="1" min="15" max="25"/>
+    <col hidden="1" width="10.375" customWidth="1" min="26" max="26"/>
+    <col hidden="1" width="13" customWidth="1" min="27" max="32"/>
+    <col hidden="1" width="24.875" customWidth="1" min="33" max="34"/>
+    <col hidden="1" width="13" customWidth="1" min="35" max="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="43"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="AI1" t="s">
-        <v>4</v>
+    <row r="1" ht="18.75" customHeight="1">
+      <c r="A1" s="39" t="inlineStr">
+        <is>
+          <t>FWNumber</t>
+        </is>
+      </c>
+      <c r="B1" s="39" t="inlineStr">
+        <is>
+          <t>SOURCE</t>
+        </is>
+      </c>
+      <c r="C1" s="40" t="n"/>
+      <c r="D1" s="41" t="n"/>
+      <c r="E1" s="39" t="inlineStr">
+        <is>
+          <t>DESTINATION</t>
+        </is>
+      </c>
+      <c r="F1" s="40" t="n"/>
+      <c r="G1" s="41" t="n"/>
+      <c r="H1" s="39" t="inlineStr">
+        <is>
+          <t>SERVICE</t>
+        </is>
+      </c>
+      <c r="I1" s="41" t="n"/>
+      <c r="J1" s="16" t="n"/>
+      <c r="K1" s="17" t="n"/>
+      <c r="L1" s="17" t="n"/>
+      <c r="M1" s="17" t="n"/>
+      <c r="N1" s="17" t="n"/>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>Test Result</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:35" s="2" customFormat="1" ht="29.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44"/>
-      <c r="B2" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="38" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="N2" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>13</v>
+    <row r="2" ht="29.45" customFormat="1" customHeight="1" s="2">
+      <c r="A2" s="42" t="n"/>
+      <c r="B2" s="39" t="inlineStr">
+        <is>
+          <t>SourceIP Start</t>
+        </is>
+      </c>
+      <c r="C2" s="39" t="inlineStr">
+        <is>
+          <t>SourceIP End</t>
+        </is>
+      </c>
+      <c r="D2" s="18" t="inlineStr">
+        <is>
+          <t>NAT IP</t>
+        </is>
+      </c>
+      <c r="E2" s="39" t="inlineStr">
+        <is>
+          <t>DestinationIP Start</t>
+        </is>
+      </c>
+      <c r="F2" s="39" t="inlineStr">
+        <is>
+          <t>DestinationIP End</t>
+        </is>
+      </c>
+      <c r="G2" s="18" t="inlineStr">
+        <is>
+          <t>NAT IP</t>
+        </is>
+      </c>
+      <c r="H2" s="19" t="inlineStr">
+        <is>
+          <t>Port TCP</t>
+        </is>
+      </c>
+      <c r="I2" s="39" t="inlineStr">
+        <is>
+          <t>Port UDP</t>
+        </is>
+      </c>
+      <c r="J2" s="20" t="inlineStr">
+        <is>
+          <t>Result (ไม่ต้องกรอกช่องนี้)</t>
+        </is>
+      </c>
+      <c r="K2" s="21" t="inlineStr">
+        <is>
+          <t>Test Result</t>
+        </is>
+      </c>
+      <c r="L2" s="21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Remark </t>
+        </is>
+      </c>
+      <c r="M2" s="21" t="inlineStr">
+        <is>
+          <t>user</t>
+        </is>
+      </c>
+      <c r="N2" s="21" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>Invalid Port</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="39" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="39" t="s">
+    <row r="3" ht="144.95" customFormat="1" customHeight="1" s="3">
+      <c r="A3" s="22" t="inlineStr">
+        <is>
+          <t>partner1</t>
+        </is>
+      </c>
+      <c r="B3" s="29" t="inlineStr">
+        <is>
+          <t>10.138.20.64</t>
+        </is>
+      </c>
+      <c r="C3" s="29" t="inlineStr">
+        <is>
+          <t>10.138.20.64</t>
+        </is>
+      </c>
+      <c r="D3" s="30" t="n"/>
+      <c r="E3" s="29" t="inlineStr">
+        <is>
+          <t>10.252.160.158</t>
+        </is>
+      </c>
+      <c r="F3" s="29" t="inlineStr">
+        <is>
+          <t>10.252.160.158</t>
+        </is>
+      </c>
+      <c r="G3" s="30" t="n"/>
+      <c r="H3" s="31" t="inlineStr">
+        <is>
+          <t>15100</t>
+        </is>
+      </c>
+      <c r="I3" s="24" t="n"/>
+      <c r="J3" s="25" t="n"/>
+      <c r="K3" s="26" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L3" s="27" t="n"/>
+      <c r="M3" s="27" t="n"/>
+      <c r="N3" s="27" t="n"/>
+      <c r="AG3" s="7" t="n"/>
+      <c r="AH3" s="7" t="n"/>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="144.95" customFormat="1" customHeight="1" s="3">
+      <c r="A4" s="8" t="inlineStr">
+        <is>
+          <t>FW00004</t>
+        </is>
+      </c>
+      <c r="B4" s="10" t="inlineStr">
+        <is>
+          <t>10.138.20.64</t>
+        </is>
+      </c>
+      <c r="C4" s="10" t="inlineStr">
+        <is>
+          <t>10.138.20.64</t>
+        </is>
+      </c>
+      <c r="D4" s="12" t="n"/>
+      <c r="E4" s="43" t="inlineStr">
+        <is>
+          <t>10.252.64.153</t>
+        </is>
+      </c>
+      <c r="F4" s="43" t="inlineStr">
+        <is>
+          <t>10.252.64.153</t>
+        </is>
+      </c>
+      <c r="G4" s="33" t="n"/>
+      <c r="H4" s="34" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="I4" s="11" t="n"/>
+      <c r="J4" s="28" t="n"/>
+      <c r="K4" s="26" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="L4" s="27" t="n"/>
+      <c r="M4" s="27" t="n"/>
+      <c r="N4" s="27" t="n"/>
+      <c r="AG4" s="7" t="n"/>
+      <c r="AH4" s="7" t="n"/>
+    </row>
+    <row r="5" ht="144.95" customFormat="1" customHeight="1" s="3">
+      <c r="A5" s="8" t="inlineStr">
+        <is>
+          <t>FW00046</t>
+        </is>
+      </c>
+      <c r="B5" s="10" t="inlineStr">
+        <is>
+          <t>10.138.20.64</t>
+        </is>
+      </c>
+      <c r="C5" s="10" t="inlineStr">
+        <is>
+          <t>10.138.20.64</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="13" t="inlineStr">
+        <is>
+          <t>dev-ldapservicews.ais.co.th</t>
+        </is>
+      </c>
+      <c r="F5" s="13" t="inlineStr">
+        <is>
+          <t>dev-ldapservicews.ais.co.th</t>
+        </is>
+      </c>
+      <c r="G5" s="33" t="n"/>
+      <c r="H5" s="35" t="n"/>
+      <c r="I5" s="11" t="n"/>
+      <c r="J5" s="9" t="n"/>
+      <c r="K5" s="14" t="inlineStr">
+        <is>
+          <t>Please provide valid IP addresses</t>
+        </is>
+      </c>
+      <c r="AG5" s="7" t="n"/>
+      <c r="AH5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="144.95" customFormat="1" customHeight="1" s="3">
+      <c r="A6" s="22" t="inlineStr">
+        <is>
+          <t>partner1</t>
+        </is>
+      </c>
+      <c r="B6" s="36" t="inlineStr">
+        <is>
+          <t>10.138.20.65</t>
+        </is>
+      </c>
+      <c r="C6" s="36" t="inlineStr">
+        <is>
+          <t>10.138.20.67</t>
+        </is>
+      </c>
+      <c r="D6" s="37" t="n"/>
+      <c r="E6" s="36" t="inlineStr">
+        <is>
+          <t>10.138.20.68</t>
+        </is>
+      </c>
+      <c r="F6" s="36" t="inlineStr">
+        <is>
+          <t>10.138.20.69</t>
+        </is>
+      </c>
+      <c r="G6" s="38" t="n"/>
+      <c r="H6" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="G3" s="27"/>
-      <c r="H3" s="30">
-        <v>30000</v>
-      </c>
-      <c r="I3" s="31"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="AG3" s="7"/>
-      <c r="AH3" s="7"/>
-      <c r="AI3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="35"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="33"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="AG4" s="7"/>
-      <c r="AH4" s="7"/>
-    </row>
-    <row r="5" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="16"/>
-      <c r="AG5" s="7"/>
-      <c r="AH5" s="7"/>
-    </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="16"/>
-      <c r="AG6" s="7"/>
-      <c r="AH6" s="7"/>
+      <c r="I6" s="11" t="n"/>
+      <c r="J6" s="9" t="n"/>
+      <c r="K6" s="14" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="AG6" s="7" t="n"/>
+      <c r="AH6" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1048,14 +1206,14 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="fail">
+    <cfRule type="containsText" priority="1" operator="containsText" dxfId="1" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",K3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="success">
+    <cfRule type="containsText" priority="2" operator="containsText" dxfId="0" text="success">
       <formula>NOT(ISERROR(SEARCH("success",K3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>